--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/ChannelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/ChannelCfg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B75E51C-2010-4195-AB1C-0842B02E4131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17700"/>
+    <workbookView xWindow="11295" yWindow="1695" windowWidth="36840" windowHeight="20445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="130">
   <si>
     <t>##var</t>
   </si>
@@ -428,23 +434,33 @@
   <si>
     <t>Harmony Event_Huanyu</t>
   </si>
+  <si>
+    <t>US_Debug</t>
+  </si>
+  <si>
+    <t>http://192.168.60.150</t>
+  </si>
+  <si>
+    <t>192.168.60.150</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,137 +493,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,182 +513,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -824,330 +537,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1405,52 +845,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AD34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W40" sqref="W40"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.78095238095238" customWidth="1"/>
-    <col min="2" max="2" width="19.1047619047619" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.552380952381" customWidth="1"/>
-    <col min="7" max="7" width="85.4380952380952" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.2190476190476" customWidth="1"/>
-    <col min="10" max="10" width="16.4380952380952" customWidth="1"/>
-    <col min="11" max="11" width="11.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="12.3333333333333" customWidth="1"/>
-    <col min="13" max="14" width="19.1047619047619" customWidth="1"/>
-    <col min="15" max="15" width="14.1047619047619" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="85.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
     <col min="16" max="16" width="19" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.4380952380952" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="16.4380952380952" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="16.4380952380952" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
     <col min="23" max="24" width="19" customWidth="1"/>
-    <col min="25" max="26" width="16.4380952380952" customWidth="1"/>
+    <col min="25" max="26" width="16.42578125" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
-    <col min="28" max="28" width="16.4380952380952" customWidth="1"/>
-    <col min="29" max="29" width="22.6666666666667" customWidth="1"/>
-    <col min="30" max="30" width="16.4380952380952" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:30">
+    <row r="1" spans="1:30" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:30">
+    <row r="2" spans="1:30" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1015,7 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:30">
+    <row r="3" spans="1:30" s="1" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1049,7 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:30">
+    <row r="4" spans="1:30" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -1702,7 +1141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:30">
+    <row r="5" spans="1:30" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -1736,7 +1175,7 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:30">
+    <row r="6" spans="1:30" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -1828,7 +1267,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:30">
+    <row r="7" spans="1:30">
       <c r="B7" s="11">
         <v>10000</v>
       </c>
@@ -1845,7 +1284,7 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" t="s">
         <v>68</v>
       </c>
       <c r="R7" t="b">
@@ -1882,7 +1321,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="1:30">
       <c r="B8" s="11">
         <v>9999</v>
       </c>
@@ -1956,92 +1395,92 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:30">
-      <c r="B9" s="11"/>
-      <c r="G9"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="10" spans="2:30">
-      <c r="B10" s="11">
+    <row r="9" spans="1:30">
+      <c r="B9" s="11">
+        <v>9998</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9">
+        <v>3478</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="B10" s="11"/>
+      <c r="G10"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="B11" s="11">
         <v>9001</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>81</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10">
-        <v>3478</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
-        <v>69</v>
-      </c>
-      <c r="U10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
-        <v>69</v>
-      </c>
-      <c r="W10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30">
-      <c r="B11" s="11">
-        <v>9002</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2110,12 +1549,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="1:30">
       <c r="B12" s="11">
-        <v>9011</v>
+        <v>9002</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2124,7 +1563,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -2133,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K12">
         <v>3478</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -2184,12 +1623,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="1:30">
       <c r="B13" s="11">
-        <v>9012</v>
+        <v>9011</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2258,90 +1697,90 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="29:30">
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="2:30">
-      <c r="B15" s="11">
+    <row r="14" spans="1:30">
+      <c r="B14" s="11">
+        <v>9012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14">
+        <v>3478</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>69</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="B16" s="11">
         <v>9021</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>89</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15">
-        <v>5478</v>
-      </c>
-      <c r="L15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="b">
-        <v>1</v>
-      </c>
-      <c r="T15" t="s">
-        <v>69</v>
-      </c>
-      <c r="U15" t="b">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
-        <v>69</v>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30">
-      <c r="B16" s="11">
-        <v>9022</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -2412,10 +1851,10 @@
     </row>
     <row r="17" spans="2:30">
       <c r="B17" s="11">
-        <v>9031</v>
+        <v>9022</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -2424,7 +1863,7 @@
         <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
         <v>76</v>
@@ -2436,7 +1875,7 @@
         <v>91</v>
       </c>
       <c r="K17">
-        <v>3478</v>
+        <v>5478</v>
       </c>
       <c r="L17" t="s">
         <v>78</v>
@@ -2454,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s">
         <v>69</v>
@@ -2486,10 +1925,10 @@
     </row>
     <row r="18" spans="2:30">
       <c r="B18" s="11">
-        <v>9032</v>
+        <v>9031</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -2559,102 +1998,90 @@
       </c>
     </row>
     <row r="19" spans="2:30">
-      <c r="B19" s="11"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
+      <c r="B19" s="11">
+        <v>9032</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19">
+        <v>3478</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>69</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>69</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="2:30">
-      <c r="B20" s="11">
-        <v>1001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20">
-        <v>3478</v>
-      </c>
-      <c r="L20" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="N20" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>100</v>
-      </c>
-      <c r="R20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>101</v>
-      </c>
-      <c r="U20" t="b">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
-        <v>101</v>
-      </c>
-      <c r="W20" t="b">
-        <v>1</v>
-      </c>
-      <c r="X20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD20" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
     </row>
     <row r="21" spans="2:30">
       <c r="B21" s="11">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -2662,7 +2089,7 @@
       <c r="F21" t="s">
         <v>74</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="12" t="s">
         <v>97</v>
       </c>
       <c r="H21" t="s">
@@ -2684,7 +2111,7 @@
         <v>79</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -2702,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="U21" t="b">
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W21" t="b">
         <v>1</v>
@@ -2720,7 +2147,7 @@
         <v>102</v>
       </c>
       <c r="Z21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AA21" t="b">
         <v>1</v>
@@ -2735,93 +2162,102 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="29:30">
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
+    <row r="22" spans="2:30">
+      <c r="B22" s="11">
+        <v>1002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22">
+        <v>3478</v>
+      </c>
+      <c r="L22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>105</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>105</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD22" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="2:30">
-      <c r="B23" s="11">
-        <v>2001</v>
-      </c>
-      <c r="C23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23">
-        <v>5478</v>
-      </c>
-      <c r="L23" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>111</v>
-      </c>
-      <c r="R23" t="b">
-        <v>0</v>
-      </c>
-      <c r="S23" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" t="s">
-        <v>69</v>
-      </c>
-      <c r="U23" t="b">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
-        <v>69</v>
-      </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
     </row>
     <row r="24" spans="2:30">
       <c r="B24" s="11">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -2869,16 +2305,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="U24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="W24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -2893,87 +2329,93 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="29:30">
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
+    <row r="25" spans="2:30">
+      <c r="B25" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25">
+        <v>5478</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>111</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>113</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>113</v>
+      </c>
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="2:30">
-      <c r="B26" s="11">
-        <v>3001</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K26">
-        <v>5478</v>
-      </c>
-      <c r="L26" t="s">
-        <v>78</v>
-      </c>
-      <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" t="b">
-        <v>0</v>
-      </c>
-      <c r="S26" t="b">
-        <v>1</v>
-      </c>
-      <c r="T26" t="s">
-        <v>69</v>
-      </c>
-      <c r="U26" t="b">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
-        <v>69</v>
-      </c>
-      <c r="W26" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD26" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
     </row>
     <row r="27" spans="2:30">
       <c r="B27" s="11">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -3040,87 +2482,87 @@
       </c>
     </row>
     <row r="28" spans="2:30">
-      <c r="B28" s="11"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
+      <c r="B28" s="11">
+        <v>3002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28">
+        <v>5478</v>
+      </c>
+      <c r="L28" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>69</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>69</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="2:30">
-      <c r="B29" s="11">
-        <v>4001</v>
-      </c>
-      <c r="C29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29">
-        <v>5478</v>
-      </c>
-      <c r="L29" t="s">
-        <v>121</v>
-      </c>
-      <c r="M29" t="s">
-        <v>79</v>
-      </c>
-      <c r="N29" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" t="b">
-        <v>1</v>
-      </c>
-      <c r="S29" t="b">
-        <v>0</v>
-      </c>
-      <c r="T29" t="s">
-        <v>69</v>
-      </c>
-      <c r="U29" t="b">
-        <v>1</v>
-      </c>
-      <c r="V29" t="s">
-        <v>69</v>
-      </c>
-      <c r="W29" t="b">
-        <v>1</v>
-      </c>
-      <c r="X29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD29" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B29" s="11"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
     </row>
     <row r="30" spans="2:30">
       <c r="B30" s="11">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -3186,77 +2628,83 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:27">
-      <c r="B32" s="3">
-        <v>1101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" t="s">
+    <row r="31" spans="2:30">
+      <c r="B31" s="11">
+        <v>4002</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" t="s">
         <v>76</v>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>110</v>
-      </c>
-      <c r="K32">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31">
         <v>5478</v>
       </c>
-      <c r="L32" t="s">
-        <v>78</v>
-      </c>
-      <c r="M32" t="s">
-        <v>78</v>
-      </c>
-      <c r="N32" t="s">
-        <v>78</v>
-      </c>
-      <c r="O32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>111</v>
-      </c>
-      <c r="R32" t="b">
-        <v>0</v>
-      </c>
-      <c r="S32" t="b">
-        <v>0</v>
-      </c>
-      <c r="U32" t="b">
-        <v>0</v>
-      </c>
-      <c r="W32" t="b">
-        <v>0</v>
-      </c>
-      <c r="X32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="b">
-        <v>0</v>
+      <c r="L31" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>69</v>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>69</v>
+      </c>
+      <c r="W31" t="b">
+        <v>1</v>
+      </c>
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:27">
       <c r="B33" s="3">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -3316,12 +2764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="2:27">
+    <row r="34" spans="2:27">
       <c r="B34" s="3">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -3381,15 +2829,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="2:27">
+      <c r="B35" s="3">
+        <v>1103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35">
+        <v>5478</v>
+      </c>
+      <c r="L35" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" t="s">
+        <v>78</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>111</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" display="https://download-realityguard.deepmirror.com/resources" tooltip="https://download-realityguard.deepmirror.com/resources"/>
-    <hyperlink ref="G32" r:id="rId2" display="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu" tooltip="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu"/>
-    <hyperlink ref="G33" r:id="rId2" display="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu" tooltip="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu"/>
-    <hyperlink ref="G34" r:id="rId2" display="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu" tooltip="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu"/>
+    <hyperlink ref="G21" r:id="rId1" tooltip="https://download-realityguard.deepmirror.com/resources" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G33" r:id="rId2" tooltip="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G34" r:id="rId3" tooltip="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G35" r:id="rId4" tooltip="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{3E654069-C9AB-4F0C-B682-0877DBC58773}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/ChannelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/ChannelCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B75E51C-2010-4195-AB1C-0842B02E4131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E0BC40-6B47-4213-93D1-C23A91F41A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="1695" windowWidth="36840" windowHeight="20445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15030" yWindow="3570" windowWidth="39150" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="130">
   <si>
     <t>##var</t>
   </si>
@@ -438,22 +438,29 @@
     <t>US_Debug</t>
   </si>
   <si>
-    <t>http://192.168.60.150</t>
-  </si>
-  <si>
-    <t>192.168.60.150</t>
+    <t>http://192.168.60.234</t>
+  </si>
+  <si>
+    <t>192.168.60.234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,39 +547,40 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -854,10 +862,10 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -875,13 +883,14 @@
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="14" width="19.140625" customWidth="1"/>
     <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="19" style="4" customWidth="1"/>
+    <col min="16" max="16" width="38.140625" style="4" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="52.5703125" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
     <col min="22" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="24" width="19" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
     <col min="25" max="26" width="16.42578125" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="16.42578125" customWidth="1"/>
@@ -1417,7 +1426,7 @@
       <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="16" t="s">
         <v>129</v>
       </c>
       <c r="K9">
@@ -1454,7 +1463,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>103</v>
       </c>
       <c r="AA9" t="b">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/ChannelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/ChannelCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E0BC40-6B47-4213-93D1-C23A91F41A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="3570" windowWidth="39150" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="138">
   <si>
     <t>##var</t>
   </si>
@@ -144,6 +138,9 @@
     <t>PrivacyPolicyURL</t>
   </si>
   <si>
+    <t>AliyunOSS</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
     <t>隐私政策URL</t>
   </si>
   <si>
+    <t>阿里云oss(AccessKeyId|AccessKeySecret|Endpoint|Bucket)</t>
+  </si>
+  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -279,7 +279,7 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>http://192.168.10.50</t>
+    <t>http://192.168.10.50/Mobile</t>
   </si>
   <si>
     <t>v1.0</t>
@@ -297,13 +297,49 @@
     <t>CN;EN</t>
   </si>
   <si>
+    <t>ARHeadset</t>
+  </si>
+  <si>
+    <t>http://192.168.10.50/Quest</t>
+  </si>
+  <si>
+    <t>OnDevice</t>
+  </si>
+  <si>
+    <t>LTAI5tK34SUNsgcUaysudxrU|sJittCtUSPxZjFezJFafNXCrYaTrUy|oss-cn-beijing.aliyuncs.com|omelette</t>
+  </si>
+  <si>
+    <t>US_Debug</t>
+  </si>
+  <si>
+    <t>http://192.168.60.234</t>
+  </si>
+  <si>
+    <t>192.168.60.234</t>
+  </si>
+  <si>
+    <t>Mv3t3nzveDt2q4mJCd5rLD</t>
+  </si>
+  <si>
+    <t>com.dm.realityguard</t>
+  </si>
+  <si>
+    <t>连接108</t>
+  </si>
+  <si>
+    <t>http://192.168.10.108</t>
+  </si>
+  <si>
+    <t>192.168.10.108</t>
+  </si>
+  <si>
     <t>Android Master_CN</t>
   </si>
   <si>
     <t>https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame</t>
   </si>
   <si>
-    <t>8.134.156.170</t>
+    <t>8.134.176.17</t>
   </si>
   <si>
     <t>IOS Master_CN</t>
@@ -360,12 +396,6 @@
     <t>https://play.google.com/store/apps/details?id=com.dm.realityguard</t>
   </si>
   <si>
-    <t>Mv3t3nzveDt2q4mJCd5rLD</t>
-  </si>
-  <si>
-    <t>com.dm.realityguard</t>
-  </si>
-  <si>
     <t>IOS Release_EN</t>
   </si>
   <si>
@@ -384,10 +414,7 @@
     <t>https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_Arcade</t>
   </si>
   <si>
-    <t>8.134.89.37</t>
-  </si>
-  <si>
-    <t>d6c1b920474345b5aee6f21d591015d2</t>
+    <t>8.134.207.186</t>
   </si>
   <si>
     <t>IOS Arcade</t>
@@ -411,18 +438,21 @@
     <t>AppleVisionPro</t>
   </si>
   <si>
-    <t>ARHeadset</t>
-  </si>
-  <si>
     <t>http://192.168.10.148</t>
   </si>
   <si>
-    <t>OnDevice</t>
-  </si>
-  <si>
     <t>MetaQuest3</t>
   </si>
   <si>
+    <t>https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_Quest</t>
+  </si>
+  <si>
+    <t>MetaQuest3_EN</t>
+  </si>
+  <si>
+    <t>https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_Quest_EN</t>
+  </si>
+  <si>
     <t>Android Event_Huanyu</t>
   </si>
   <si>
@@ -430,44 +460,24 @@
   </si>
   <si>
     <t>IOS Event_Huanyu</t>
-  </si>
-  <si>
-    <t>Harmony Event_Huanyu</t>
-  </si>
-  <si>
-    <t>US_Debug</t>
-  </si>
-  <si>
-    <t>http://192.168.60.234</t>
-  </si>
-  <si>
-    <t>192.168.60.234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,7 +497,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -495,13 +505,127 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,8 +644,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -544,58 +842,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -853,52 +1424,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="19.1428571428571" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
     <col min="4" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="85.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="38.140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="85.4285714285714" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="10.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="16.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="11.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="12.2857142857143" customWidth="1"/>
+    <col min="13" max="14" width="19.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="14.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="38.1428571428571" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.4285714285714" customWidth="1"/>
     <col min="18" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="52.5703125" customWidth="1"/>
+    <col min="20" max="20" width="52.5714285714286" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" customWidth="1"/>
+    <col min="22" max="22" width="48.5714285714286" customWidth="1"/>
+    <col min="23" max="23" width="26.5714285714286" customWidth="1"/>
     <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="26" width="16.42578125" customWidth="1"/>
+    <col min="25" max="26" width="16.4285714285714" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" customWidth="1"/>
-    <col min="29" max="29" width="22.7109375" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" customWidth="1"/>
+    <col min="28" max="28" width="16.4285714285714" customWidth="1"/>
+    <col min="29" max="29" width="22.7142857142857" customWidth="1"/>
+    <col min="30" max="30" width="35.2857142857143" customWidth="1"/>
+    <col min="31" max="31" width="16.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -989,8 +1562,11 @@
       <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:31">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1023,8 +1599,9 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:31">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1057,102 +1634,106 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:31">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="Q4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="U4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="8" t="s">
+      <c r="W4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AD4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AB4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>31</v>
+      <c r="AE4" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1">
+    <row r="5" s="2" customFormat="1" spans="1:31">
       <c r="A5" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
@@ -1183,118 +1764,122 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:31">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="2:31">
       <c r="B7" s="11">
         <v>10000</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7"/>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1303,13 +1888,13 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1321,821 +1906,900 @@
         <v>1</v>
       </c>
       <c r="AB7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AE7" s="4"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="2:31">
       <c r="B8" s="11">
         <v>9999</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8">
         <v>3478</v>
       </c>
       <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE8" s="4"/>
+    </row>
+    <row r="9" spans="2:31">
+      <c r="B9" s="11">
+        <v>99991</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
         <v>78</v>
       </c>
-      <c r="M8" t="s">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>79</v>
-      </c>
-      <c r="N8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="B9" s="11">
-        <v>9998</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="K9">
         <v>3478</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
       </c>
       <c r="R9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="b">
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="b">
         <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31">
+      <c r="B10" s="11">
+        <v>9998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10">
+        <v>3478</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
         <v>71</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
         <v>72</v>
       </c>
+      <c r="AC10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="14"/>
     </row>
-    <row r="10" spans="1:30">
-      <c r="B10" s="11"/>
-      <c r="G10"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-    </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="2:31">
       <c r="B11" s="11">
-        <v>9001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
+        <v>99981</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>3478</v>
       </c>
       <c r="L11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>71</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>71</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" s="14"/>
+    </row>
+    <row r="12" spans="2:31">
+      <c r="B12" s="11">
+        <v>9997</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
         <v>78</v>
       </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" t="s">
-        <v>69</v>
-      </c>
-      <c r="U11" t="b">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
-        <v>69</v>
-      </c>
-      <c r="W11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="B12" s="11">
-        <v>9002</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K12">
         <v>3478</v>
       </c>
       <c r="L12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="4"/>
+    </row>
+    <row r="13" spans="2:31">
+      <c r="B13" s="11"/>
+      <c r="G13"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+    </row>
+    <row r="14" spans="2:31">
+      <c r="B14" s="11">
+        <v>9001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
         <v>78</v>
       </c>
-      <c r="M12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" t="s">
-        <v>69</v>
-      </c>
-      <c r="U12" t="b">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>69</v>
-      </c>
-      <c r="W12" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="B13" s="11">
-        <v>9011</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13">
-        <v>3478</v>
-      </c>
-      <c r="L13" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" t="s">
-        <v>69</v>
-      </c>
-      <c r="U13" t="b">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>69</v>
-      </c>
-      <c r="W13" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="B14" s="11">
-        <v>9012</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K14">
         <v>3478</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE14" s="4"/>
+    </row>
+    <row r="15" spans="2:31">
+      <c r="B15" s="11">
+        <v>9002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15">
+        <v>3478</v>
+      </c>
+      <c r="L15" t="s">
         <v>80</v>
       </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" t="b">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
-        <v>69</v>
-      </c>
-      <c r="W14" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC14" s="4" t="s">
+      <c r="M15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
         <v>71</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
         <v>72</v>
       </c>
+      <c r="AC15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE15" s="4"/>
     </row>
-    <row r="15" spans="1:30">
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
+    <row r="16" spans="2:31">
+      <c r="B16" s="11">
+        <v>9011</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16">
+        <v>3478</v>
+      </c>
+      <c r="L16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="4"/>
     </row>
-    <row r="16" spans="1:30">
-      <c r="B16" s="11">
+    <row r="17" spans="2:31">
+      <c r="B17" s="11">
+        <v>9012</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17">
+        <v>3478</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="4"/>
+    </row>
+    <row r="18" spans="29:31">
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="11">
         <v>9021</v>
       </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19">
+        <v>5478</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>71</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="AE19" s="4"/>
+    </row>
+    <row r="20" spans="2:31">
+      <c r="B20" s="11">
+        <v>9022</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16">
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20">
         <v>5478</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>71</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE20" s="4"/>
+    </row>
+    <row r="21" spans="2:31">
+      <c r="B21" s="11">
+        <v>9031</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
         <v>78</v>
       </c>
-      <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="b">
-        <v>1</v>
-      </c>
-      <c r="T16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
-        <v>69</v>
-      </c>
-      <c r="W16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30">
-      <c r="B17" s="11">
-        <v>9022</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17">
-        <v>5478</v>
-      </c>
-      <c r="L17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="b">
-        <v>1</v>
-      </c>
-      <c r="T17" t="s">
-        <v>69</v>
-      </c>
-      <c r="U17" t="b">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
-        <v>69</v>
-      </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30">
-      <c r="B18" s="11">
-        <v>9031</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18">
-        <v>3478</v>
-      </c>
-      <c r="L18" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>69</v>
-      </c>
-      <c r="U18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
-        <v>69</v>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:30">
-      <c r="B19" s="11">
-        <v>9032</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19">
-        <v>3478</v>
-      </c>
-      <c r="L19" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O19" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>69</v>
-      </c>
-      <c r="U19" t="b">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>69</v>
-      </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:30">
-      <c r="B20" s="11"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="21" spans="2:30">
-      <c r="B21" s="11">
-        <v>1001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
-      </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K21">
         <v>3478</v>
       </c>
       <c r="L21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
@@ -2144,84 +2808,73 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="U21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="b">
         <v>1</v>
       </c>
       <c r="AB21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD21" s="13" t="s">
         <v>72</v>
       </c>
+      <c r="AC21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="2:31">
       <c r="B22" s="11">
-        <v>1002</v>
+        <v>9032</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K22">
         <v>3478</v>
       </c>
       <c r="L22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
@@ -2230,234 +2883,252 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="U22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="W22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="b">
         <v>1</v>
       </c>
       <c r="AB22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD22" s="13" t="s">
         <v>72</v>
       </c>
+      <c r="AC22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="2:31">
+      <c r="B23" s="11"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="2:31">
       <c r="B24" s="11">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24">
+        <v>3478</v>
+      </c>
+      <c r="L24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>114</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>115</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE24" s="15"/>
+    </row>
+    <row r="25" spans="2:31">
+      <c r="B25" s="11">
+        <v>1002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24">
-        <v>5478</v>
-      </c>
-      <c r="L24" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" t="s">
-        <v>79</v>
-      </c>
-      <c r="N24" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="G25" t="s">
         <v>111</v>
       </c>
-      <c r="R24" t="b">
-        <v>0</v>
-      </c>
-      <c r="S24" t="b">
-        <v>0</v>
-      </c>
-      <c r="T24" t="s">
-        <v>69</v>
-      </c>
-      <c r="U24" t="b">
-        <v>0</v>
-      </c>
-      <c r="V24" t="s">
-        <v>69</v>
-      </c>
-      <c r="W24" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD24" s="4" t="s">
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25">
+        <v>3478</v>
+      </c>
+      <c r="L25" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>114</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>117</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>117</v>
+      </c>
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
         <v>72</v>
       </c>
+      <c r="AC25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE25" s="15"/>
     </row>
-    <row r="25" spans="2:30">
-      <c r="B25" s="11">
-        <v>2002</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25">
-        <v>5478</v>
-      </c>
-      <c r="L25" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" t="s">
-        <v>79</v>
-      </c>
-      <c r="N25" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>111</v>
-      </c>
-      <c r="R25" t="b">
-        <v>0</v>
-      </c>
-      <c r="S25" t="b">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
-        <v>113</v>
-      </c>
-      <c r="U25" t="b">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
-        <v>113</v>
-      </c>
-      <c r="W25" t="b">
-        <v>1</v>
-      </c>
-      <c r="X25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30">
+    <row r="26" spans="29:31">
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="2:31">
       <c r="B27" s="11">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="K27">
         <v>5478</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N27" t="s">
         <v>80</v>
@@ -2465,20 +3136,21 @@
       <c r="O27" t="b">
         <v>0</v>
       </c>
+      <c r="P27"/>
       <c r="R27" t="b">
         <v>0</v>
       </c>
       <c r="S27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W27" t="b">
         <v>0</v>
@@ -2490,45 +3162,46 @@
         <v>0</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AE27" s="4"/>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="2:31">
       <c r="B28" s="11">
-        <v>3002</v>
+        <v>2002</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="K28">
         <v>5478</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N28" t="s">
         <v>80</v>
@@ -2536,23 +3209,24 @@
       <c r="O28" t="b">
         <v>0</v>
       </c>
+      <c r="P28"/>
       <c r="R28" t="b">
         <v>0</v>
       </c>
       <c r="S28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="U28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="W28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -2561,74 +3235,75 @@
         <v>0</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AE28" s="4"/>
     </row>
-    <row r="29" spans="2:30">
-      <c r="B29" s="11"/>
+    <row r="29" spans="29:31">
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="2:31">
       <c r="B30" s="11">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K30">
         <v>5478</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
       </c>
       <c r="R30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -2637,287 +3312,436 @@
         <v>0</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AE30" s="4"/>
     </row>
-    <row r="31" spans="2:30">
+    <row r="31" spans="2:31">
       <c r="B31" s="11">
-        <v>4002</v>
+        <v>3002</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="G31" t="s">
+        <v>127</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <v>5478</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N31" t="s">
+        <v>82</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>71</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE31" s="4"/>
+    </row>
+    <row r="32" spans="2:31">
+      <c r="B32" s="11"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+    </row>
+    <row r="33" spans="2:31">
+      <c r="B33" s="11">
+        <v>4001</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33">
+        <v>7478</v>
+      </c>
+      <c r="L33" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>71</v>
+      </c>
+      <c r="W33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE33" s="4"/>
+    </row>
+    <row r="34" spans="2:31">
+      <c r="B34" s="11">
+        <v>4002</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34">
+        <v>7478</v>
+      </c>
+      <c r="L34" t="s">
+        <v>85</v>
+      </c>
+      <c r="M34" t="s">
+        <v>81</v>
+      </c>
+      <c r="N34" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>71</v>
+      </c>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE34" s="4"/>
+    </row>
+    <row r="35" spans="2:31">
+      <c r="B35" s="11">
+        <v>4003</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35">
+        <v>3478</v>
+      </c>
+      <c r="L35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" t="s">
+        <v>81</v>
+      </c>
+      <c r="N35" t="s">
+        <v>82</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>71</v>
+      </c>
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE35" s="4"/>
+    </row>
+    <row r="37" spans="2:27">
+      <c r="B37" s="3">
+        <v>1101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37">
+        <v>5478</v>
+      </c>
+      <c r="L37" t="s">
         <v>80</v>
       </c>
-      <c r="O31" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" t="b">
-        <v>1</v>
-      </c>
-      <c r="S31" t="b">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
-        <v>69</v>
-      </c>
-      <c r="U31" t="b">
-        <v>1</v>
-      </c>
-      <c r="V31" t="s">
-        <v>69</v>
-      </c>
-      <c r="W31" t="b">
-        <v>1</v>
-      </c>
-      <c r="X31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>72</v>
+      <c r="M37" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37"/>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:27">
-      <c r="B33" s="3">
-        <v>1101</v>
-      </c>
-      <c r="C33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" t="s">
+    <row r="38" spans="2:27">
+      <c r="B38" s="3">
+        <v>1102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
         <v>76</v>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>110</v>
-      </c>
-      <c r="K33">
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38">
         <v>5478</v>
       </c>
-      <c r="L33" t="s">
-        <v>78</v>
-      </c>
-      <c r="M33" t="s">
-        <v>78</v>
-      </c>
-      <c r="N33" t="s">
-        <v>78</v>
-      </c>
-      <c r="O33" t="b">
-        <v>1</v>
-      </c>
-      <c r="P33" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>111</v>
-      </c>
-      <c r="R33" t="b">
-        <v>0</v>
-      </c>
-      <c r="S33" t="b">
-        <v>0</v>
-      </c>
-      <c r="U33" t="b">
-        <v>0</v>
-      </c>
-      <c r="W33" t="b">
-        <v>0</v>
-      </c>
-      <c r="X33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27">
-      <c r="B34" s="3">
-        <v>1102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K34">
-        <v>5478</v>
-      </c>
-      <c r="L34" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" t="s">
-        <v>78</v>
-      </c>
-      <c r="N34" t="s">
-        <v>78</v>
-      </c>
-      <c r="O34" t="b">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>111</v>
-      </c>
-      <c r="R34" t="b">
-        <v>0</v>
-      </c>
-      <c r="S34" t="b">
-        <v>0</v>
-      </c>
-      <c r="U34" t="b">
-        <v>0</v>
-      </c>
-      <c r="W34" t="b">
-        <v>0</v>
-      </c>
-      <c r="X34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27">
-      <c r="B35" s="3">
-        <v>1103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>110</v>
-      </c>
-      <c r="K35">
-        <v>5478</v>
-      </c>
-      <c r="L35" t="s">
-        <v>78</v>
-      </c>
-      <c r="M35" t="s">
-        <v>78</v>
-      </c>
-      <c r="N35" t="s">
-        <v>78</v>
-      </c>
-      <c r="O35" t="b">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>111</v>
-      </c>
-      <c r="R35" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35" t="b">
-        <v>0</v>
-      </c>
-      <c r="U35" t="b">
-        <v>0</v>
-      </c>
-      <c r="W35" t="b">
-        <v>0</v>
-      </c>
-      <c r="X35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="b">
+      <c r="L38" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" t="s">
+        <v>80</v>
+      </c>
+      <c r="N38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38"/>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" tooltip="https://download-realityguard.deepmirror.com/resources" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G33" r:id="rId2" tooltip="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G34" r:id="rId3" tooltip="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G35" r:id="rId4" tooltip="https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EventHuanyu" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{3E654069-C9AB-4F0C-B682-0877DBC58773}"/>
+    <hyperlink ref="G10" r:id="rId1" display="http://192.168.60.234"/>
+    <hyperlink ref="J38" r:id="rId2" display="8.134.207.186" tooltip="http://8.134.207.186"/>
+    <hyperlink ref="J37" r:id="rId2" display="8.134.207.186" tooltip="http://8.134.207.186"/>
+    <hyperlink ref="J28" r:id="rId2" display="8.134.207.186" tooltip="http://8.134.207.186"/>
+    <hyperlink ref="J27" r:id="rId2" display="8.134.207.186" tooltip="http://8.134.207.186"/>
+    <hyperlink ref="J14" r:id="rId3" display="8.134.176.17" tooltip="http://8.134.176.17/"/>
+    <hyperlink ref="J15" r:id="rId3" display="8.134.176.17" tooltip="http://8.134.176.17/"/>
+    <hyperlink ref="J30" r:id="rId3" display="8.134.176.17" tooltip="http://8.134.176.17/"/>
+    <hyperlink ref="J31" r:id="rId3" display="8.134.176.17" tooltip="http://8.134.176.17/"/>
+    <hyperlink ref="G8" r:id="rId4" display="http://192.168.10.50/Mobile"/>
+    <hyperlink ref="G9" r:id="rId5" display="http://192.168.10.50/Quest"/>
+    <hyperlink ref="G12" r:id="rId6" display="http://192.168.10.108" tooltip="http://192.168.10.108"/>
+    <hyperlink ref="G11" r:id="rId1" display="http://192.168.60.234"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>